--- a/FrankSimulations.xlsx
+++ b/FrankSimulations.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="220" windowWidth="21000" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Full" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Normal</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t>Difference ChooseA/AvoidN</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -98,8 +102,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -115,17 +123,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,11 +396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121140600"/>
-        <c:axId val="2115870776"/>
+        <c:axId val="2090710952"/>
+        <c:axId val="2090702152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121140600"/>
+        <c:axId val="2090710952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115870776"/>
+        <c:crossAx val="2090702152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -405,7 +417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115870776"/>
+        <c:axId val="2090702152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -424,7 +436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121140600"/>
+        <c:crossAx val="2090710952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -776,11 +788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121836760"/>
-        <c:axId val="2121503720"/>
+        <c:axId val="-2118905928"/>
+        <c:axId val="-2118142072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121836760"/>
+        <c:axId val="-2118905928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121503720"/>
+        <c:crossAx val="-2118142072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -797,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121503720"/>
+        <c:axId val="-2118142072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -810,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121836760"/>
+        <c:crossAx val="-2118905928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -819,8 +831,17 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.359184649700357"/>
+          <c:y val="0.0535707745834096"/>
+          <c:w val="0.615286071322996"/>
+          <c:h val="0.278240510633845"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1150,11 +1171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107673080"/>
-        <c:axId val="2119368008"/>
+        <c:axId val="-2118628168"/>
+        <c:axId val="-2118648344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107673080"/>
+        <c:axId val="-2118628168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119368008"/>
+        <c:crossAx val="-2118648344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119368008"/>
+        <c:axId val="-2118648344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1184,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107673080"/>
+        <c:crossAx val="-2118628168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1193,8 +1214,17 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.482235360511677"/>
+          <c:y val="0.545265126742878"/>
+          <c:w val="0.480221977372282"/>
+          <c:h val="0.34800795249431"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1206,6 +1236,175 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200">
+          <a:latin typeface="Helvetica"/>
+          <a:cs typeface="Helvetica"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>D2 = 1.00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2 = 0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2 = 0.50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D2 = 0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D2 = 0.10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2141492104"/>
+        <c:axId val="-2145562040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2141492104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145562040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2145562040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141492104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
           <a:latin typeface="Helvetica"/>
           <a:cs typeface="Helvetica"/>
         </a:defRPr>
@@ -1266,8 +1465,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -1290,16 +1489,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1315,6 +1514,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1647,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1734,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1989,15 +2223,15 @@
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="1">
-        <f t="shared" ref="C38:C43" si="2">F6-G6</f>
+        <f t="shared" ref="C38:C41" si="2">F6-G6</f>
         <v>0.25</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D43" si="3">F6/G6</f>
+        <f t="shared" ref="D38:D41" si="3">F6/G6</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E43" si="4">D6-E6</f>
+        <f t="shared" ref="E38:E41" si="4">D6-E6</f>
         <v>4.2499999999999982E-2</v>
       </c>
       <c r="L38" s="1">
@@ -2123,4 +2357,93 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="str">
+        <f>CONCATENATE("D2 = ",TEXT(D5, "0.00"))</f>
+        <v>D2 = 1.00</v>
+      </c>
+      <c r="C5">
+        <v>0.68</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B9" si="0">CONCATENATE("D2 = ",TEXT(D6, "0.00"))</f>
+        <v>D2 = 0.75</v>
+      </c>
+      <c r="C6">
+        <v>0.63</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>D2 = 0.50</v>
+      </c>
+      <c r="C7">
+        <v>0.54</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>D2 = 0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.48</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>D2 = 0.10</v>
+      </c>
+      <c r="C9">
+        <v>0.42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/FrankSimulations.xlsx
+++ b/FrankSimulations.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="220" windowWidth="21000" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7620" yWindow="340" windowWidth="21000" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Full" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Full (No Diff" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Normal</t>
   </si>
@@ -54,6 +56,15 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Effect</t>
   </si>
 </sst>
 </file>
@@ -102,8 +113,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -123,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -131,6 +148,9 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -138,6 +158,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -175,7 +198,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -396,11 +418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090710952"/>
-        <c:axId val="2090702152"/>
+        <c:axId val="2078654952"/>
+        <c:axId val="2078630328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090710952"/>
+        <c:axId val="2078654952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,7 +431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090702152"/>
+        <c:crossAx val="2078630328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,7 +439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090702152"/>
+        <c:axId val="2078630328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -436,7 +458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090710952"/>
+        <c:crossAx val="2078654952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -445,7 +467,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -788,11 +809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2118905928"/>
-        <c:axId val="-2118142072"/>
+        <c:axId val="2146535112"/>
+        <c:axId val="2146537640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2118905928"/>
+        <c:axId val="2146535112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118142072"/>
+        <c:crossAx val="2146537640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118142072"/>
+        <c:axId val="2146537640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -822,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118905928"/>
+        <c:crossAx val="2146535112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1171,11 +1192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2118628168"/>
-        <c:axId val="-2118648344"/>
+        <c:axId val="2146607400"/>
+        <c:axId val="2146611128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2118628168"/>
+        <c:axId val="2146607400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118648344"/>
+        <c:crossAx val="2146611128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1192,7 +1213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118648344"/>
+        <c:axId val="2146611128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1205,7 +1226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118628168"/>
+        <c:crossAx val="2146607400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1358,11 +1379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141492104"/>
-        <c:axId val="-2145562040"/>
+        <c:axId val="-2133535352"/>
+        <c:axId val="-2133519176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141492104"/>
+        <c:axId val="-2133535352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145562040"/>
+        <c:crossAx val="-2133519176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1379,7 +1400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145562040"/>
+        <c:axId val="-2133519176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141492104"/>
+        <c:crossAx val="-2133535352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,6 +1426,945 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
+          <a:latin typeface="Helvetica"/>
+          <a:cs typeface="Helvetica"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$I$5:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>D2 = 0.10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D2 = 0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2 = 0.50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D2 = 0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D2 = 1.00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$5:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2132061336"/>
+        <c:axId val="2143827240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2132061336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143827240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2143827240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132061336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.20, Noise = 0.10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$D$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$D$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.20, Noise = 0.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$D$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$D$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.77625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.20, Noise = 0.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$D$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$D$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.79854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.20, Noise = 0.04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$D$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$D$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.20, Noise = 0.02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$D$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$D$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2133302568"/>
+        <c:axId val="-2133299016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2133302568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133299016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2133299016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133302568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.05"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.133928677004112"/>
+          <c:y val="0.588454495513642"/>
+          <c:w val="0.615286071322996"/>
+          <c:h val="0.278240510633845"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Helvetica"/>
+          <a:cs typeface="Helvetica"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.20, Noise = 0.10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$M$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$M$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.18, Noise = 0.10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$M$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$M$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.7425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.15, Noise = 0.10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$M$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$M$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.7125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.13, Noise = 0.10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$M$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$M$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha = 0.10, Noise = 0.10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Full (No Diff'!$M$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Choose A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avoid B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Full (No Diff'!$M$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2134349784"/>
+        <c:axId val="-2134203416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2134349784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134203416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2134203416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134349784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.05"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.376433312730107"/>
+          <c:y val="0.628321605148194"/>
+          <c:w val="0.586024025153852"/>
+          <c:h val="0.264951474088995"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="Helvetica"/>
           <a:cs typeface="Helvetica"/>
         </a:defRPr>
@@ -1549,6 +2509,105 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1881,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2361,23 +3420,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D9"/>
+  <dimension ref="B4:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:11">
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:11">
       <c r="B5" t="str">
         <f>CONCATENATE("D2 = ",TEXT(D5, "0.00"))</f>
         <v>D2 = 1.00</v>
@@ -2388,8 +3453,18 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE("D2 = ",TEXT(K5, "0.00"))</f>
+        <v>D2 = 0.10</v>
+      </c>
+      <c r="J5">
+        <v>78</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:11">
       <c r="B6" t="str">
         <f t="shared" ref="B6:B9" si="0">CONCATENATE("D2 = ",TEXT(D6, "0.00"))</f>
         <v>D2 = 0.75</v>
@@ -2400,8 +3475,18 @@
       <c r="D6" s="1">
         <v>0.75</v>
       </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="1">CONCATENATE("D2 = ",TEXT(K6, "0.00"))</f>
+        <v>D2 = 0.25</v>
+      </c>
+      <c r="J6">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:11">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>D2 = 0.50</v>
@@ -2412,8 +3497,18 @@
       <c r="D7" s="1">
         <v>0.5</v>
       </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>D2 = 0.50</v>
+      </c>
+      <c r="J7">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:11">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>D2 = 0.25</v>
@@ -2424,8 +3519,18 @@
       <c r="D8" s="1">
         <v>0.25</v>
       </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>D2 = 0.75</v>
+      </c>
+      <c r="J8">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:11">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>D2 = 0.10</v>
@@ -2436,9 +3541,435 @@
       <c r="D9" s="1">
         <v>0.1</v>
       </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>D2 = 1.00</v>
+      </c>
+      <c r="J9">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:P43"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:16">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" t="str">
+        <f>CONCATENATE("Alpha = ",TEXT(F5,"0.00"),", Noise = ",TEXT(G5, "0.00"))</f>
+        <v>Alpha = 0.20, Noise = 0.10</v>
+      </c>
+      <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L5" t="str">
+        <f>CONCATENATE("Alpha = ",TEXT(O5,"0.00"),", Noise = ",TEXT(P5, "0.00"))</f>
+        <v>Alpha = 0.20, Noise = 0.10</v>
+      </c>
+      <c r="M5">
+        <v>0.75</v>
+      </c>
+      <c r="N5">
+        <v>0.75</v>
+      </c>
+      <c r="O5">
+        <v>0.2</v>
+      </c>
+      <c r="P5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C9" si="0">CONCATENATE("Alpha = ",TEXT(F6,"0.00"),", Noise = ",TEXT(G6, "0.00"))</f>
+        <v>Alpha = 0.20, Noise = 0.08</v>
+      </c>
+      <c r="D6">
+        <v>0.77625</v>
+      </c>
+      <c r="E6">
+        <f>D6</f>
+        <v>0.77625</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L9" si="1">CONCATENATE("Alpha = ",TEXT(O6,"0.00"),", Noise = ",TEXT(P6, "0.00"))</f>
+        <v>Alpha = 0.18, Noise = 0.10</v>
+      </c>
+      <c r="M6">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="N6">
+        <f>M6</f>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="O6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Alpha = 0.20, Noise = 0.06</v>
+      </c>
+      <c r="D7">
+        <v>0.79854000000000003</v>
+      </c>
+      <c r="E7">
+        <f>D7</f>
+        <v>0.79854000000000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>Alpha = 0.15, Noise = 0.10</v>
+      </c>
+      <c r="M7">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="O7">
+        <v>0.15</v>
+      </c>
+      <c r="P7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Alpha = 0.20, Noise = 0.04</v>
+      </c>
+      <c r="D8">
+        <v>0.84</v>
+      </c>
+      <c r="E8">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>Alpha = 0.13, Noise = 0.10</v>
+      </c>
+      <c r="M8">
+        <v>0.65</v>
+      </c>
+      <c r="N8">
+        <v>0.64</v>
+      </c>
+      <c r="O8">
+        <v>0.125</v>
+      </c>
+      <c r="P8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Alpha = 0.20, Noise = 0.02</v>
+      </c>
+      <c r="D9">
+        <v>0.89</v>
+      </c>
+      <c r="E9">
+        <v>0.91</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>Alpha = 0.10, Noise = 0.10</v>
+      </c>
+      <c r="M9">
+        <v>0.63</v>
+      </c>
+      <c r="N9">
+        <v>0.62</v>
+      </c>
+      <c r="O9">
+        <v>0.1</v>
+      </c>
+      <c r="P9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="1">
+        <f>F5-G5</f>
+        <v>0.1</v>
+      </c>
+      <c r="D37">
+        <f>F5/G5</f>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f>D5-E5</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f>O5-P5</f>
+        <v>0.1</v>
+      </c>
+      <c r="M37">
+        <f>O5/P5</f>
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <f>M5-N5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="1">
+        <f t="shared" ref="C38:C41" si="2">F6-G6</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D41" si="3">F6/G6</f>
+        <v>2.5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E41" si="4">D6-E6</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" ref="L38:L41" si="5">O6-P6</f>
+        <v>7.4999999999999983E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38:M41" si="6">O6/P6</f>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N41" si="7">M6-N6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="5"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>7.5000000000000622E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>-2.3000000000000798E-3</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="1">
+        <f>CORREL(C37:C41,$E37:$E41)</f>
+        <v>-0.76488986240420853</v>
+      </c>
+      <c r="D43" s="1">
+        <f>CORREL(D37:D41,$E37:$E41)</f>
+        <v>-0.96657653925253872</v>
+      </c>
+      <c r="L43" s="1">
+        <f>CORREL(L37:L41,$N37:$N41)</f>
+        <v>-0.92582009977255031</v>
+      </c>
+      <c r="M43" s="1">
+        <f>CORREL(M37:M41,$N37:$N41)</f>
+        <v>-0.92582009977255053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
